--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59228.35947637243</v>
+        <v>11786443.5357981</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59228.35947637243</v>
+        <v>11786443.5357981</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>508.5134554284689</v>
+        <v>32827.25563325269</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.5134554284689</v>
+        <v>32827.25563325269</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189417595.336246</v>
+        <v>49012768.67849554</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10164.59329676639</v>
+        <v>1136470.072337241</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19285.45400818874</v>
+        <v>2111094.099906613</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28406.31471961108</v>
+        <v>3085718.127475987</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37610.26851193605</v>
+        <v>4066362.788930299</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46790.70230426102</v>
+        <v>5042326.970384611</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55971.13609658597</v>
+        <v>6018291.151838922</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65151.56988891093</v>
+        <v>6994255.333293229</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74332.00368123589</v>
+        <v>7970219.514747538</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83512.43747356087</v>
+        <v>8946183.696201844</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92692.87126588584</v>
+        <v>9922147.877656152</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101873.3050582108</v>
+        <v>10898112.05911047</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110970.6457696331</v>
+        <v>11868055.60667985</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120091.5064810554</v>
+        <v>12842679.63424923</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129212.3671924777</v>
+        <v>13817303.66181861</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138333.2279039</v>
+        <v>14791927.68938799</v>
       </c>
     </row>
   </sheetData>
@@ -27040,31 +27040,31 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>391</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>391</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
